--- a/Project REBOUND Exit Survey_Jayden.xlsx
+++ b/Project REBOUND Exit Survey_Jayden.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phamn\Documents\Project\Rebound Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1377C6FC-603B-4B46-A97A-6CF3601704E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB9CD22-912C-41A8-A069-A7855FA23370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="331" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$AC$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$Z$13</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="85">
   <si>
     <t>Progress</t>
   </si>
@@ -50,18 +50,6 @@
   </si>
   <si>
     <t>Response ID</t>
-  </si>
-  <si>
-    <t>Recipient Last Name</t>
-  </si>
-  <si>
-    <t>Recipient First Name</t>
-  </si>
-  <si>
-    <t>Recipient Email</t>
-  </si>
-  <si>
-    <t>External Data Reference</t>
   </si>
   <si>
     <t>Location Latitude</t>
@@ -90,6 +78,9 @@
 By clicking the button below, you acknowledge that you have read the statements above and consent to the survey. By consenting to the survey, you consent to participate in the study.</t>
   </si>
   <si>
+    <t>Please enter your StudentID</t>
+  </si>
+  <si>
     <t>Select the unit you taking this particular REBOUND class for?</t>
   </si>
   <si>
@@ -147,6 +138,9 @@
     <t>anonymous</t>
   </si>
   <si>
+    <t>48219320</t>
+  </si>
+  <si>
     <t>Very Confident</t>
   </si>
   <si>
@@ -165,6 +159,9 @@
     <t>I do not consent, I do not wish to participate</t>
   </si>
   <si>
+    <t>47282177</t>
+  </si>
+  <si>
     <t>Confident</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
     <t>R_9RUfDZyMwAW6qY9</t>
   </si>
   <si>
+    <t>47834250</t>
+  </si>
+  <si>
     <t>COMP1350 - Introduction to Database Design and Management</t>
   </si>
   <si>
@@ -204,6 +204,9 @@
     <t>R_4mBNIteox6qyYPT</t>
   </si>
   <si>
+    <t>47123427</t>
+  </si>
+  <si>
     <t>Help me clarify concepts</t>
   </si>
   <si>
@@ -213,7 +216,13 @@
     <t>R_9AYZcVGxj7NnIs3</t>
   </si>
   <si>
+    <t>48548111</t>
+  </si>
+  <si>
     <t>R_9rrCjNDf0OyFy9j</t>
+  </si>
+  <si>
+    <t>49011022</t>
   </si>
   <si>
     <t>Not Confident at all</t>
@@ -232,12 +241,18 @@
     <t>R_9FtQwOctzhWfBlo</t>
   </si>
   <si>
+    <t>46270132</t>
+  </si>
+  <si>
     <t>1.145.57.154</t>
   </si>
   <si>
     <t>R_97w0vnkIh5WY8tb</t>
   </si>
   <si>
+    <t>47139226</t>
+  </si>
+  <si>
     <t xml:space="preserve">I was unable to attend the first two tutorials as I was working. Unlike other units, it was very difficult for me to understand / catch up on my own accord without the guidance of a teacher. The rebound class provided me with the opportunity outside of class to ask questions from the weeks i missed and catch up to date, otherwise I would have fallen far behind.  </t>
   </si>
   <si>
@@ -247,6 +262,9 @@
     <t>R_4QLYE0ACvSrV8bT</t>
   </si>
   <si>
+    <t>49004999</t>
+  </si>
+  <si>
     <t>Concept explanation</t>
   </si>
   <si>
@@ -254,6 +272,9 @@
   </si>
   <si>
     <t>R_9zcNPnnmVy8awlz</t>
+  </si>
+  <si>
+    <t>48665541</t>
   </si>
   <si>
     <t>good</t>
@@ -651,29 +672,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="51.7265625" customWidth="1"/>
-    <col min="20" max="20" width="24.90625" customWidth="1"/>
-    <col min="21" max="21" width="71.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.7265625" customWidth="1"/>
-    <col min="24" max="24" width="42.90625" customWidth="1"/>
-    <col min="25" max="25" width="35.1796875" customWidth="1"/>
-    <col min="27" max="27" width="42.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="41.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -752,17 +763,8 @@
       <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="2" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45792.852905092594</v>
       </c>
@@ -773,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -782,76 +784,67 @@
         <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H2" s="1">
         <v>45792.854173321757</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2">
+        <v>-33.789400000000001</v>
+      </c>
+      <c r="K2">
+        <v>151.0813</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2">
-        <v>-33.789400000000001</v>
-      </c>
-      <c r="O2">
-        <v>151.0813</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2">
+        <v>5</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z2">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="3" spans="1:29" ht="87" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45792.853796296295</v>
       </c>
@@ -862,7 +855,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -871,76 +864,67 @@
         <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1">
         <v>45792.854522997688</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3">
+        <v>-33.789400000000001</v>
+      </c>
+      <c r="K3">
+        <v>151.0813</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3">
-        <v>-33.789400000000001</v>
-      </c>
-      <c r="O3">
-        <v>151.0813</v>
-      </c>
       <c r="P3" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3">
+        <v>5</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="Y3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z3">
-        <v>5</v>
-      </c>
-      <c r="AA3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AB3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>40</v>
+      <c r="Z3" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45799.016759259262</v>
       </c>
@@ -951,7 +935,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -960,76 +944,67 @@
         <v>129</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1">
         <v>45799.018268148146</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4">
+        <v>-33.789400000000001</v>
+      </c>
+      <c r="K4">
+        <v>151.0813</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4">
-        <v>-33.789400000000001</v>
-      </c>
-      <c r="O4">
-        <v>151.0813</v>
-      </c>
       <c r="P4" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="2" t="s">
-        <v>43</v>
+      <c r="W4">
+        <v>4</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z4">
-        <v>4</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45792.826458333337</v>
       </c>
@@ -1040,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1057,68 +1032,59 @@
       <c r="I5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5">
+        <v>-33.789400000000001</v>
+      </c>
+      <c r="K5">
+        <v>151.0813</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5">
-        <v>-33.789400000000001</v>
-      </c>
-      <c r="O5">
-        <v>151.0813</v>
+      <c r="O5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45813.040821759256</v>
       </c>
@@ -1129,7 +1095,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -1138,7 +1104,7 @@
         <v>87</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1">
         <v>45813.04184662037</v>
@@ -1146,68 +1112,59 @@
       <c r="I6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6">
+        <v>-33.807099999999998</v>
+      </c>
+      <c r="K6">
+        <v>151.12889999999999</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6">
-        <v>-33.807099999999998</v>
-      </c>
-      <c r="O6">
-        <v>151.12889999999999</v>
+      <c r="O6" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="W6">
+        <v>5</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z6">
-        <v>5</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45867.126331018517</v>
       </c>
@@ -1218,7 +1175,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>40</v>
@@ -1233,70 +1190,61 @@
         <v>45874.126344062497</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7">
+        <v>-33.807099999999998</v>
+      </c>
+      <c r="K7">
+        <v>151.12889999999999</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7">
-        <v>-33.807099999999998</v>
-      </c>
-      <c r="O7">
-        <v>151.12889999999999</v>
+      <c r="O7" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45883.779247685183</v>
       </c>
@@ -1307,7 +1255,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -1316,76 +1264,67 @@
         <v>119</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1">
         <v>45883.780648692133</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8">
+        <v>-33.807099999999998</v>
+      </c>
+      <c r="K8">
+        <v>151.12889999999999</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8">
-        <v>-33.807099999999998</v>
-      </c>
-      <c r="O8">
-        <v>151.12889999999999</v>
+      <c r="O8" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W8">
+        <v>5</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z8">
-        <v>5</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z8" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45881.251562500001</v>
       </c>
@@ -1396,7 +1335,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E9">
         <v>40</v>
@@ -1411,70 +1350,61 @@
         <v>45888.251626412035</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9">
+        <v>-33.867199999999997</v>
+      </c>
+      <c r="K9">
+        <v>151.19970000000001</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9">
-        <v>-33.867199999999997</v>
-      </c>
-      <c r="O9">
-        <v>151.19970000000001</v>
+      <c r="O9" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45890.860555555555</v>
       </c>
@@ -1485,7 +1415,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -1494,76 +1424,67 @@
         <v>181</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H10" s="1">
         <v>45890.862658726852</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10">
+        <v>-33.806899999999999</v>
+      </c>
+      <c r="K10">
+        <v>150.9845</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10">
-        <v>-33.806899999999999</v>
-      </c>
-      <c r="O10">
-        <v>150.9845</v>
+      <c r="O10" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="W10">
+        <v>5</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z10">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>40</v>
+        <v>73</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45952.100810185184</v>
       </c>
@@ -1574,7 +1495,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1583,76 +1504,67 @@
         <v>255</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H11" s="1">
         <v>45952.103777997683</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11">
+        <v>-33.807099999999998</v>
+      </c>
+      <c r="K11">
+        <v>151.12889999999999</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11">
-        <v>-33.807099999999998</v>
-      </c>
-      <c r="O11">
-        <v>151.12889999999999</v>
+      <c r="O11" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="W11">
+        <v>5</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z11">
-        <v>5</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z11" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45959.118900462963</v>
       </c>
@@ -1663,7 +1575,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -1672,76 +1584,67 @@
         <v>72</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H12" s="1">
         <v>45959.119748888887</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12">
+        <v>-33.807099999999998</v>
+      </c>
+      <c r="K12">
+        <v>151.12889999999999</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12">
-        <v>-33.807099999999998</v>
-      </c>
-      <c r="O12">
-        <v>151.12889999999999</v>
+      <c r="O12" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="W12">
+        <v>5</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z12">
-        <v>5</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z12" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45967.70821759259</v>
       </c>
@@ -1752,7 +1655,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -1761,96 +1664,82 @@
         <v>65</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H13" s="1">
         <v>45967.708983958335</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13">
+        <v>-33.789400000000001</v>
+      </c>
+      <c r="K13">
+        <v>151.0813</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13">
-        <v>-33.789400000000001</v>
-      </c>
-      <c r="O13">
-        <v>151.0813</v>
-      </c>
       <c r="P13" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="W13">
+        <v>5</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z13">
-        <v>5</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z13" s="2" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC13" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <dateGroupItem year="2025" month="5" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:Z13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <filters>
         <filter val="True"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="18">
+    <filterColumn colId="15">
       <filters>
-        <filter val="COMP1000- Introduction to Computer Programming"/>
+        <filter val="COMP1350 - Introduction to Database Design and Management"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1 D1 G1 I1 J1 K1 L1 M1 P1 Q1 R1 S1 U2:U13 V2:V13 W2:W13 X2:X13 Y2:Y13 Z2:Z13 AA2:AA13 AB2:AB13 AC1 T2:T13 C2:C13 D2:D13 G2:G13 I2:I13 J2:J13 K2:K13 L2:L13 M2:M13 P2:P13 Q2:Q13 S2:S13 AC2:AC13 R4:R13" numberStoredAsText="1"/>
+    <ignoredError sqref="C1 D1 G1 I1 L1 M1 N1 O1 P1 Q1 R1 S1 T1 U1 V1 W1 X1 Y1 Z1 C2:C13 D2:D13 G2:G13 I2:I13 L2:L13 M2:M13 N2:N13 O2:O13 P2:P13 Q2:Q13 R2:R13 S2:S13 T2:T13 U2:U13 V2:V13 W2:W13 X2:X13 Y2:Y13 Z2:Z13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>